--- a/比赛记录/2024 APMCM/数据/Gray_Relation_Detail_Result.xlsx
+++ b/比赛记录/2024 APMCM/数据/Gray_Relation_Detail_Result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,34 +436,29 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>变量</t>
+          <t>Variable</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Cat（万只）</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Dog（万只）</t>
+          <t>Dog</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>宠物行业市场规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>宠物食物市场规模</t>
+          <t>Market Size</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GDP（国内生产总值/亿元）</t>
+          <t>GDP</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -475,14 +470,11 @@
       <c r="D2" t="n">
         <v>0.711411034725315</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.7484446649942859</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>居民人均可支配收入(元)</t>
+          <t xml:space="preserve">Per Capita Disposable Income </t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -494,122 +486,69 @@
       <c r="D3" t="n">
         <v>0.7016305538617394</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.748619308512938</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>居民恩格尔系数(%)</t>
+          <t xml:space="preserve">Total Population </t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6456188898455995</v>
+        <v>0.7104846479059013</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5906990023270791</v>
+        <v>0.6906620752996889</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6542847159271959</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.6017505340842616</v>
+        <v>0.6891471919924688</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>总人口数（万人）</t>
+          <t>Population Aged 65 and Above</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7104846479059013</v>
+        <v>0.782541692636501</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6906620752996889</v>
+        <v>0.5998477369869482</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6891471919924688</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.6743853726913476</v>
+        <v>0.7870975910704765</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>65岁及以上人口(万人)</t>
+          <t>Urbanization Rate</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.782541692636501</v>
+        <v>0.6932466567109334</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5998477369869482</v>
+        <v>0.6130993605266493</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7870975910704765</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.6262410076313116</v>
+        <v>0.7163154101712763</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>结婚登记（万对）</t>
+          <t>Hospital number</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6907340857508416</v>
+        <v>0.6494911435920496</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6689427499014526</v>
+        <v>0.6120164415245035</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6474225706067867</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.712888370481229</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>出生率（百分比）</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.7049968954967772</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.6427603103686479</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.6612349612380964</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.7162399288459533</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>城镇化率（百分比）</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.6932466567109334</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6130993605266493</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.7163154101712763</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.6144016742287215</v>
+        <v>0.7548567903653274</v>
       </c>
     </row>
   </sheetData>
